--- a/Diff Probe BOM V3.xlsx
+++ b/Diff Probe BOM V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A8E05CA-460C-4712-BC4C-DC3BDB8C144E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C66EF-742E-4FEC-914E-636ADAE0DE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="1875" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="1320" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -622,30 +622,15 @@
     <t>490-11455-1-ND</t>
   </si>
   <si>
-    <t>4.2uF in a 0402 package seems to be gone, you can use the largest 0402 size capacitor. I found this one on DigiKey: 298D225X0010K2T</t>
-  </si>
-  <si>
     <t>CAP CER 10PF 1% 200V NP0 0603</t>
   </si>
   <si>
-    <t xml:space="preserve">Note1: The sum of these resistors should be 575pF if using my source for 10pF input caps.. Be prepared to change C7/C12 value if the AC gain can't be adjusted to the correct value with C5 and C10. </t>
-  </si>
-  <si>
     <t>Note2: Can use JR200 a 4.5-20pF trimmer to get more range, but poorer tempco.</t>
   </si>
   <si>
-    <t>Note3: Can use any SOT23-5 opamp with same pinout and Vos &lt;5mV and operates with 5.0V supply</t>
-  </si>
-  <si>
-    <t>Note4: Must have ESR = 2.5Ω. Alternate source: https://www.digikey.com/product-detail/en/avx-corporation/TAJB106K025RNJ/478-5257-1-ND/1950924</t>
-  </si>
-  <si>
     <t>Note5: Can use any logic level PCH FET with RDSon &lt; 1Ω</t>
   </si>
   <si>
-    <t>Note6: Alternate source - https://www.digikey.com/product-detail/en/mueller-electric-co/BU-1420701801/314-1702-ND/9950116</t>
-  </si>
-  <si>
     <t>C5, C10 (Note1, Note2)</t>
   </si>
   <si>
@@ -679,12 +664,6 @@
     <t>C7, C12 alternative</t>
   </si>
   <si>
-    <t>C24, C31 (Note7)</t>
-  </si>
-  <si>
-    <t>Note 7: 4.2uF in a 0402 package seems to be no longer available, you can use the largest 0402 size capacitor. I found this one on DigiKey: 298D225X0010K2T</t>
-  </si>
-  <si>
     <t>0603B105K100XD</t>
   </si>
   <si>
@@ -713,6 +692,45 @@
   </si>
   <si>
     <t>DNP</t>
+  </si>
+  <si>
+    <t>4.2uF in a 0402 package is hard to get</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note1: The sum of these capacitors should be 575pF if using my source for 10pF input caps.. Be prepared to change C7/C12 value if the AC gain can't be adjusted to the correct value with C5 and C10. </t>
+  </si>
+  <si>
+    <t>Note3: Can use any SOT23-5 opamp for U3 with same pinout and Vos &lt;5mV and operates with 5.0V supply</t>
+  </si>
+  <si>
+    <t>Note4: Must have ESR =&lt; 2.5Ω. Alternate source: https://www.digikey.com/product-detail/en/avx-corporation/TAJB106K025RNJ/478-5257-1-ND/1950924</t>
+  </si>
+  <si>
+    <t>1.6mm Board Edge Female SMA</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32779564868.html?spm=a2g0s.9042311.0.0.40a64c4dDmQTXO</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Mueller Electric Co</t>
+  </si>
+  <si>
+    <t>BU-1420701801</t>
+  </si>
+  <si>
+    <t>314-1702-ND</t>
+  </si>
+  <si>
+    <t>Note6: 4.2uF in a 0402 package seems to be hard to get. I found this one on DigiKey: CC042MRX5R7BB475, or a smaller value one: 298D225X0010K2T</t>
+  </si>
+  <si>
+    <t>C24, C31 (Note6)</t>
   </si>
 </sst>
 </file>
@@ -795,7 +813,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -822,10 +840,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{8873537C-C51C-42F8-A6A9-09DFB6950BAE}"/>
@@ -1142,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1198,7 +1217,7 @@
         <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1224,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1250,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1328,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1340,7 +1359,7 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1588,7 +1607,7 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1600,7 +1619,7 @@
         <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1626,7 +1645,7 @@
         <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1666,7 +1685,7 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1743,8 +1762,8 @@
       <c r="C23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D23" t="s">
-        <v>219</v>
+      <c r="D23" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1759,7 +1778,7 @@
         <v>126</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1996,7 +2015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>172</v>
       </c>
@@ -2022,36 +2041,36 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="6"/>
       <c r="H34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D35" t="s">
         <v>179</v>
@@ -2061,18 +2080,18 @@
       </c>
       <c r="F35" s="6"/>
       <c r="H35" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D36" t="s">
         <v>181</v>
@@ -2082,11 +2101,11 @@
       </c>
       <c r="F36" s="6"/>
       <c r="H36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="15"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="14"/>
       <c r="B37" s="8"/>
       <c r="D37" t="s">
         <v>180</v>
@@ -2096,19 +2115,42 @@
       </c>
       <c r="F37" s="6"/>
       <c r="H37" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38"/>
+      <c r="H38" t="s">
+        <v>228</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="15"/>
-      <c r="B38" s="8"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="14"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:8">
+    <row r="39" spans="1:12">
+      <c r="E39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
         <v>196</v>
       </c>
@@ -2134,7 +2176,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
         <v>197</v>
       </c>
@@ -2160,7 +2202,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -2186,7 +2228,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2212,12 +2254,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:12">
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2228,12 +2270,12 @@
         <v>192</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="12" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2249,7 +2291,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2265,7 +2307,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="12" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2281,7 +2323,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="12" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2297,7 +2339,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2313,32 +2355,13 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="12" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A57" r:id="rId1" display="https://www.digikey.com/product-detail/en/mueller-electric-co/BU-1420701801/314-1702-ND/9950116" xr:uid="{4B136949-F2AA-47BE-A435-ABD65457FF54}"/>
-  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Diff Probe BOM V3.xlsx
+++ b/Diff Probe BOM V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C66EF-742E-4FEC-914E-636ADAE0DE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B990E36A-1530-4112-9DF4-708B22815261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1320" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="930" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="238">
   <si>
     <t>Manufacturer Part Number</t>
   </si>
@@ -400,9 +400,6 @@
     <t>€  3,36</t>
   </si>
   <si>
-    <t>CAP TANT 4.7UF 20% 10V 0402</t>
-  </si>
-  <si>
     <t>C0402C101K5GACTU</t>
   </si>
   <si>
@@ -731,6 +728,12 @@
   </si>
   <si>
     <t>C24, C31 (Note6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP TANT 4.7UF 20% 10V 0402 </t>
+  </si>
+  <si>
+    <t>Note6: You could also try a 0603 size, the PCB pads should be able to accommodate that size.</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -843,8 +846,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{8873537C-C51C-42F8-A6A9-09DFB6950BAE}"/>
@@ -1161,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1208,16 +1210,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1229,7 +1231,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1243,7 +1245,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1269,7 +1271,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1312,13 +1314,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1327,13 +1329,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1347,7 +1349,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1359,7 +1361,7 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1607,7 +1609,7 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1619,7 +1621,7 @@
         <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1645,7 +1647,7 @@
         <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1685,7 +1687,7 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1763,7 +1765,7 @@
         <v>123</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1775,128 +1777,128 @@
         <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
         <v>127</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>128</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" t="s">
         <v>132</v>
-      </c>
-      <c r="H24" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" t="s">
         <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>136</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
         <v>139</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>140</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>142</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" t="s">
         <v>144</v>
-      </c>
-      <c r="H26" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
         <v>146</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>147</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>148</v>
-      </c>
-      <c r="D27" t="s">
-        <v>149</v>
       </c>
       <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" t="s">
         <v>153</v>
-      </c>
-      <c r="D28" t="s">
-        <v>154</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1908,21 +1910,21 @@
         <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" t="s">
         <v>157</v>
-      </c>
-      <c r="D29" t="s">
-        <v>158</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1934,47 +1936,47 @@
         <v>110</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
         <v>160</v>
       </c>
-      <c r="B30" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>161</v>
-      </c>
-      <c r="D30" t="s">
-        <v>162</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s">
         <v>165</v>
-      </c>
-      <c r="D31" t="s">
-        <v>166</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1986,21 +1988,21 @@
         <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
       <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
         <v>169</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -2012,138 +2014,138 @@
         <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
         <v>172</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>173</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>174</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" t="s">
         <v>177</v>
-      </c>
-      <c r="H33" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="6"/>
       <c r="H34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="F35" s="6"/>
       <c r="H35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="6"/>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="14"/>
       <c r="B37" s="8"/>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="6"/>
       <c r="H37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
         <v>233</v>
       </c>
-      <c r="B38" t="s">
-        <v>232</v>
-      </c>
-      <c r="C38" t="s">
-        <v>234</v>
-      </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
+        <v>227</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="K38" s="11"/>
+      <c r="L38" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2152,16 +2154,16 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2173,21 +2175,21 @@
         <v>86</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2199,33 +2201,33 @@
         <v>86</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2239,7 +2241,7 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
@@ -2259,23 +2261,23 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2291,7 +2293,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -2307,7 +2309,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2323,7 +2325,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2339,7 +2341,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2355,7 +2357,12 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="15" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Diff Probe BOM V3.xlsx
+++ b/Diff Probe BOM V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\Differential Probe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B990E36A-1530-4112-9DF4-708B22815261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FEEC2E-91B4-49DC-B2A7-4541ACCD9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="930" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="1275" windowWidth="24180" windowHeight="15165" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,9 +625,6 @@
     <t>Note2: Can use JR200 a 4.5-20pF trimmer to get more range, but poorer tempco.</t>
   </si>
   <si>
-    <t>Note5: Can use any logic level PCH FET with RDSon &lt; 1Ω</t>
-  </si>
-  <si>
     <t>C5, C10 (Note1, Note2)</t>
   </si>
   <si>
@@ -734,6 +731,9 @@
   </si>
   <si>
     <t>Note6: You could also try a 0603 size, the PCB pads should be able to accommodate that size.</t>
+  </si>
+  <si>
+    <t>Note5: Can use any logic level PCH FET with RDSon &lt; 1Ω (the lower the better); As an example AO3401A (60mOhm).</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -846,7 +846,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{8873537C-C51C-42F8-A6A9-09DFB6950BAE}"/>
@@ -1165,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1219,7 +1218,7 @@
         <v>194</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E2" s="2">
         <v>2</v>
@@ -1245,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -1271,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1349,7 +1348,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1361,7 +1360,7 @@
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1609,7 +1608,7 @@
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1621,7 +1620,7 @@
         <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1687,7 +1686,7 @@
         <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1765,7 +1764,7 @@
         <v>123</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1777,10 +1776,10 @@
         <v>125</v>
       </c>
       <c r="H23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2045,34 +2044,34 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="6"/>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s">
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D35" t="s">
         <v>178</v>
@@ -2082,18 +2081,18 @@
       </c>
       <c r="F35" s="6"/>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
         <v>180</v>
@@ -2103,7 +2102,7 @@
       </c>
       <c r="F36" s="6"/>
       <c r="H36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2117,35 +2116,35 @@
       </c>
       <c r="F37" s="6"/>
       <c r="H37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" t="s">
         <v>232</v>
       </c>
-      <c r="B38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" t="s">
-        <v>233</v>
-      </c>
       <c r="D38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="G38"/>
       <c r="H38" t="s">
+        <v>226</v>
+      </c>
+      <c r="J38" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2261,7 +2260,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2272,12 +2271,12 @@
         <v>191</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -2309,7 +2308,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -2325,7 +2324,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -2341,7 +2340,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="12" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -2357,12 +2356,12 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="15" t="s">
-        <v>237</v>
+      <c r="A58" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
